--- a/data/AI-Generated Reading Assessment Reports (Responses).xlsx
+++ b/data/AI-Generated Reading Assessment Reports (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>Timestamp</t>
   </si>
@@ -198,6 +198,42 @@
   <si>
     <t>First of all, great job! I know this is a big task and this product is quite impressive. I really like the structure of the report overall. 
 Secondly, I'd like to clarify my point about using simpler language. My concern is not that teachers will not be able to understand the vocabulary. Rather, I worry that because teachers are so busy that if a program has too much jargon, they'll choose not to engage with it and use there time elsewhere. So, it's best to be clear and to the point.</t>
+  </si>
+  <si>
+    <t>Two reasons - one, I don't like the word "good" as an indicator because it is imprecise, and two, there is no reference to "advanced" and "emerging" reader types, which I would think are important?</t>
+  </si>
+  <si>
+    <t>It provides a decent overview and highlights concerns (code standards, metrics used for analyses, successes and areas for growth.</t>
+  </si>
+  <si>
+    <t>My only concern is that "inference" is mentioned under content, but I guess it is in the context of reading and not general inference.</t>
+  </si>
+  <si>
+    <t>Identifying student labels, giving numbers and short descriptors, I find this concise, effective and easy to read.</t>
+  </si>
+  <si>
+    <t>I want to know more about what made them outliers - and how such support may be provided in the context of assessment/is it allowed/feasible?</t>
+  </si>
+  <si>
+    <t>As suggestions, they seem a bit vague and not directed towards specific reading comp. goals? It might help to connect them with skills and content goals.</t>
+  </si>
+  <si>
+    <t>I appreciate how accessible it is.</t>
+  </si>
+  <si>
+    <t>I liked the clusters section because it gave a very succinct overview with students identified.</t>
+  </si>
+  <si>
+    <t>same as above.</t>
+  </si>
+  <si>
+    <t>The recommendations section - I mentioned above why.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have mentioned these in sections on keywords, outliers and recommendations sections. </t>
+  </si>
+  <si>
+    <t>Thanks for sharing this.</t>
   </si>
 </sst>
 </file>
@@ -361,10 +397,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -372,13 +408,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -386,13 +422,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -500,7 +536,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:T5" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:T6" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="20">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -993,65 +1029,127 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>45705.67780723379</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>2.0</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>5.0</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>4.0</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="M5" s="11" t="s">
+      <c r="L5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="9" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10">
+        <v>45706.018236041666</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
